--- a/Hluvukani_G_delivery/Hluvukani_G_delivery-media/Hluvukani_G_delivery.xlsx
+++ b/Hluvukani_G_delivery/Hluvukani_G_delivery-media/Hluvukani_G_delivery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\illovo\ODK Forms\hluvukani-odk-forms\Hluvukani_G_delivery\Hluvukani_G_delivery-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12797543-4F8F-4244-9BD6-E313B860C905}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3459EA97-FAA8-46A1-9925-6566AF599137}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$9</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
   <si>
     <t>type</t>
   </si>
@@ -231,24 +231,6 @@
     <t>Data da entrega da Declaração:</t>
   </si>
   <si>
-    <t>id_tipo</t>
-  </si>
-  <si>
-    <t>id_num</t>
-  </si>
-  <si>
-    <t>pulldata('source', 'doc', 'upn_key', ${upn})</t>
-  </si>
-  <si>
-    <t>pulldata('source', 'doc_id', 'upn_key', ${upn})</t>
-  </si>
-  <si>
-    <t>nopreloadnote</t>
-  </si>
-  <si>
-    <t>id_tipo_confirm</t>
-  </si>
-  <si>
     <t>id_foto_verso</t>
   </si>
   <si>
@@ -258,15 +240,6 @@
     <t>concat('Declaracoes','_',${upn})</t>
   </si>
   <si>
-    <t>${id_tipo_confirm}='nao'</t>
-  </si>
-  <si>
-    <t>string-length(${id_tipo}) &lt; 1</t>
-  </si>
-  <si>
-    <t>string-length(${id_tipo}) &gt; 0</t>
-  </si>
-  <si>
     <t>id_titular_confirm</t>
   </si>
   <si>
@@ -276,9 +249,6 @@
     <t>${id_titular_confirm}='nao'</t>
   </si>
   <si>
-    <t xml:space="preserve">Faça a favor de confirmar que a ID apresentada está em nome de um dos titulares nomeados na Declaração  </t>
-  </si>
-  <si>
     <t>foto_example</t>
   </si>
   <si>
@@ -295,41 +265,92 @@
   </si>
   <si>
     <t>Assinatura da pessoa que recebeu a Declaração</t>
+  </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
+    <t>pulldata('source', 'resultado', 'upn_key', ${upn})</t>
+  </si>
+  <si>
+    <t>preloadnote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br/&gt; &lt;span style="color:#57b055"&gt;${resultado}&lt;/span&gt; &lt;br/&gt; </t>
+  </si>
+  <si>
+    <t>Faça a favor de confirmar que a ID apresentada está em nome de um dos titulares nomeados na Declaração.</t>
+  </si>
+  <si>
+    <t>${id_titular_confirm}='sim'</t>
+  </si>
+  <si>
+    <t>A Declaração só pode ser entregue na apresentação de ID de pelo menos um dos titulares nomeados na Declaração.
+&lt;br/&gt;&lt;span style="color:red"&gt;Faça a favor de fechar o formulario sem gravar mudanças.&lt;/span&gt; &lt;br/&gt; 
+O tecnico deve explicar que é obrigatorio a apresentação de ID de pelo menos um dos titulares nomeados na Declaração.</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>Gg1</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>${resultado}='Declaracao emitida'</t>
   </si>
   <si>
     <t>&lt;br/&gt; &lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt; 
 Este formulário é utilizado para fazer registo de entrega de Declarações aos titulares.
-As Declarações só podem ser entregues mediante a apresentação do recibo original e o documento de identificação de um dos titulares.
-Será possível selecçionar o numero de parcela/recibo duma lista, e depois
+As Declarações só podem ser entregues mediante a apresentação do &lt;span style="color:#E7002F"&gt;recibo original e o documento de identificação de um dos titulares&lt;/span&gt;.
+No formulario, será possível selecionar o numero de parcela/recibo duma lista, e depois
 - confirmar as detalhes de identificação
 - capturar a informação sobre a data de entrega
 O titular deve apresentar e entregar o original do recibo, que fica cancelado pelo técnico e posteriormente arquivado pelo Hluvukani.  
 O técnico terá que tirar uma foto do recibo cancelado, e o titular terá que assinar no formulário para confirmar que recebeu a Declaração certa. 
-&lt;br/&gt; &lt;span style="color:#E7002F"&gt;As declarações só podem ser entregues a alguém que apresentem o original do recibo que foi emitido no momento da demarcação da parcela.&lt;/span&gt; &lt;br/&gt; 
+&lt;br/&gt; &lt;span style="color:#E7002F"&gt;As declarações só podem ser entregues a alguém que apresente o original do recibo que foi emitido no momento da demarcação da parcela.&lt;/span&gt; &lt;br/&gt; 
 Por favor deslizar para a frente para continuar.</t>
   </si>
   <si>
-    <t>A Declaração só pode ser entregue na apresentação de ID de pelo menos um dos titulares nomeados na Declaração.
-Faça a favor de fechar o formulario sem gravar mudanças.
-O tecnico deve explicar que é obrigatorio a apresentação de ID de pelo menos um dos titulares nomeados na Declaração.</t>
-  </si>
-  <si>
-    <t>${id_titular_confirm}='sim' or ${id_tipo_confirm}='sim'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faça a favor de confirmar que a ID apresentada é &lt;br/&gt; &lt;br/&gt; &lt;span style="color:#E7002F"&gt;"${id_tipo}"&lt;br/&gt;&lt;/span&gt;  &lt;br/&gt; com o numero &lt;br/&gt;&lt;br/&gt;  &lt;span style="color:#E7002F"&gt;"${id_num}"&lt;/span&gt; &lt;br/&gt; </t>
-  </si>
-  <si>
-    <t>Nenhuma Declaração foi emitida para esta parcela.</t>
+    <t>preloadfail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> string-length(${resultado}) &lt; 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br/&gt; &lt;span style="color:red"&gt;Esta parcela nao existe. Por favor volte e reintroduza outro numero de recibo&lt;/span&gt; &lt;br/&gt; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -527,346 +548,370 @@
   </borders>
   <cellStyleXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="237">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1443,13 +1488,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,8 +1594,8 @@
       <c r="B4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>90</v>
+      <c r="C4" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="I4" s="26"/>
     </row>
@@ -1624,115 +1669,108 @@
       </c>
     </row>
     <row r="9" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>68</v>
+      <c r="B9" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="36"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="M9" s="35" t="s">
-        <v>70</v>
+      <c r="M9" s="49" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="36"/>
+      <c r="A10" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>93</v>
+      </c>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="M10" s="35" t="s">
-        <v>71</v>
-      </c>
+      <c r="M10" s="49"/>
     </row>
     <row r="11" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>72</v>
+      <c r="B11" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H11" s="35"/>
     </row>
-    <row r="12" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="G12" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>77</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="44"/>
       <c r="J13" s="35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="28" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>91</v>
+        <v>72</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>86</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H14" s="35"/>
       <c r="J14" s="43"/>
     </row>
-    <row r="15" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="51" t="s">
         <v>85</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>92</v>
       </c>
       <c r="H15" s="35"/>
       <c r="J15" s="43"/>
       <c r="N15" s="43" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -1742,11 +1780,11 @@
       <c r="B16" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="46" t="s">
-        <v>92</v>
+      <c r="G16" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="J16" s="36" t="s">
         <v>22</v>
@@ -1759,11 +1797,11 @@
       <c r="B17" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>92</v>
+      <c r="C17" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="J17" s="36" t="s">
         <v>22</v>
@@ -1774,13 +1812,13 @@
         <v>38</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>92</v>
+        <v>68</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="J18" s="36" t="s">
         <v>22</v>
@@ -1793,11 +1831,11 @@
       <c r="B19" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>92</v>
+      <c r="C19" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="J19" s="24" t="s">
         <v>22</v>
@@ -1813,21 +1851,29 @@
       <c r="B20" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>92</v>
+      <c r="C20" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>85</v>
       </c>
       <c r="J20" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="46"/>
+      <c r="G21" s="51"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1846,7 +1892,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,7 +2012,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,10 +2046,10 @@
         <v>59</v>
       </c>
       <c r="C2" s="32">
-        <v>201804104</v>
+        <v>201804262</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
